--- a/ADC korekce.xlsx
+++ b/ADC korekce.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mechatronika\zdroj\v3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mechatronika\zdroj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492ABA05-0BCF-449F-A850-0D7C77B0B985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B0186E-6557-43D5-914A-E0217850F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701769E6-910C-495F-9108-E9F7473121A3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>U[V]</t>
   </si>
@@ -48,16 +48,39 @@
     <t>chyba[V]</t>
   </si>
   <si>
-    <t>chaba[%]</t>
+    <t>chyba[%]</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>ADC max</t>
+  </si>
+  <si>
+    <t>ADC min</t>
+  </si>
+  <si>
+    <t>ADC avg</t>
+  </si>
+  <si>
+    <t>U adc</t>
+  </si>
+  <si>
+    <t>chyba [%]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -77,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -85,15 +108,182 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -753,7 +943,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$H$9:$H$10</c:f>
+              <c:f>List1!$J$14:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -768,7 +958,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$I$9:$I$10</c:f>
+              <c:f>List1!$K$14:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -948,7 +1138,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -988,7 +1178,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2038,689 +2228,1118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E353EB-305F-4836-8586-AFDB78AFBECF}">
-  <dimension ref="A8:I42"/>
+  <dimension ref="A7:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="6">
+        <f t="shared" ref="G9:G10" si="0">(E9+F9)/2</f>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="20">
+        <f>E9/424.71</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="I9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
         <f>(D10*0.008)+0.0005</f>
         <v>1.3288E-3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <f>(B10/D10)*100</f>
         <v>1.2826254826254828</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <v>0.1036</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>38</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="8">
         <v>50</v>
       </c>
-      <c r="H10">
-        <v>3.3</v>
-      </c>
-      <c r="I10">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="17">
+        <f>E10/365</f>
+        <v>0.10410958904109589</v>
+      </c>
+      <c r="I10" s="21">
+        <f>((H10-D10)/D10)*100</f>
+        <v>0.49188131379912681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="15">
         <f>(D11*0.008)+0.005</f>
         <v>6.6319999999999999E-3</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:C42" si="0">(B11/D11)*100</f>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:C42" si="1">(B11/D11)*100</f>
         <v>3.2509803921568632</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="10">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>161</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="8">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f t="shared" ref="B12:B29" si="1">(D12*0.008)+0.005</f>
+      <c r="G11" s="8">
+        <f>(E11+F11)/2</f>
+        <v>164</v>
+      </c>
+      <c r="H11" s="17">
+        <f>(G11/1226.9938)+0.0693</f>
+        <v>0.20296000708398038</v>
+      </c>
+      <c r="I11" s="21">
+        <f>((H11-D11)/D11)*100</f>
+        <v>-0.50980044902922106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <f t="shared" ref="B12:B27" si="2">(D12*0.008)+0.005</f>
         <v>7.4320000000000002E-3</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
+      <c r="C12" s="9">
+        <f t="shared" si="1"/>
         <v>2.4447368421052635</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="10">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <v>284</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>291</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="G12" s="8">
+        <f t="shared" ref="G12:G42" si="3">(E12+F12)/2</f>
+        <v>287.5</v>
+      </c>
+      <c r="H12" s="17">
+        <f>(G12/1226.9938)+0.0693</f>
+        <v>0.30361251241856313</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" ref="I12:I42" si="4">((H12-D12)/D12)*100</f>
+        <v>-0.12746302020949432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <f t="shared" si="2"/>
+        <v>8.208E-3</v>
+      </c>
+      <c r="C13" s="9">
         <f t="shared" si="1"/>
-        <v>8.208E-3</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
         <v>2.0468827930174562</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="10">
         <v>0.40100000000000002</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>401</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>410</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="G13" s="8">
+        <f t="shared" si="3"/>
+        <v>405.5</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" ref="H12:H42" si="5">(G13/1226.9938)+0.0693</f>
+        <v>0.39978251751557348</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="4"/>
+        <v>-0.30361159212632077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <f t="shared" si="2"/>
+        <v>9.0559999999999998E-3</v>
+      </c>
+      <c r="C14" s="9">
         <f t="shared" si="1"/>
-        <v>9.0559999999999998E-3</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
         <v>1.7861932938856013</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="10">
         <v>0.50700000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <v>535</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>540</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="G14" s="8">
+        <f t="shared" si="3"/>
+        <v>537.5</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="5"/>
+        <v>0.50736252321731379</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="4"/>
+        <v>7.1503593158536785E-2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <f t="shared" si="2"/>
+        <v>9.8560000000000002E-3</v>
+      </c>
+      <c r="C15" s="9">
         <f t="shared" si="1"/>
-        <v>9.8560000000000002E-3</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
         <v>1.6237232289950578</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="10">
         <v>0.60699999999999998</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>654</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>667</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="G15" s="8">
+        <f t="shared" si="3"/>
+        <v>660.5</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="5"/>
+        <v>0.60760752853029909</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="4"/>
+        <v>0.10008707253692031</v>
+      </c>
+      <c r="J15">
+        <v>3.3</v>
+      </c>
+      <c r="K15">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <f t="shared" si="2"/>
+        <v>1.06E-2</v>
+      </c>
+      <c r="C16" s="9">
         <f t="shared" si="1"/>
-        <v>1.06E-2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
         <v>1.5142857142857145</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="10">
         <v>0.7</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>768</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>798</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="G16" s="8">
+        <f t="shared" si="3"/>
+        <v>783</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="5"/>
+        <v>0.70744503382168689</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="4"/>
+        <v>1.0635762602409902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <f t="shared" si="2"/>
+        <v>1.1368E-2</v>
+      </c>
+      <c r="C17" s="9">
+        <f>(B17/D17)*100</f>
+        <v>1.4281407035175879</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E17" s="8">
+        <v>887</v>
+      </c>
+      <c r="F17" s="8">
+        <v>895</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="3"/>
+        <v>891</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.7954650384867471</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="4"/>
+        <v>-6.7206220257907109E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <f t="shared" si="2"/>
+        <v>1.2216000000000001E-2</v>
+      </c>
+      <c r="C18" s="9">
         <f t="shared" si="1"/>
-        <v>1.1368E-2</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1.4281407035175879</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="E17">
-        <v>887</v>
-      </c>
-      <c r="F17">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18">
+        <v>1.3543237250554325</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1018</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1027</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="3"/>
+        <v>1022.5</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="5"/>
+        <v>0.9026375441668899</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="4"/>
+        <v>7.068117149555217E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <f t="shared" si="2"/>
+        <v>1.3007999999999999E-2</v>
+      </c>
+      <c r="C19" s="9">
         <f t="shared" si="1"/>
-        <v>1.2216000000000001E-2</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1.3543237250554325</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="E18">
-        <v>1018</v>
-      </c>
-      <c r="F18">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19">
+        <v>1.2995004995004995</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1142</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1149</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="3"/>
+        <v>1145.5</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="5"/>
+        <v>1.0028825494798752</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="4"/>
+        <v>0.1880668811064253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <f t="shared" si="2"/>
+        <v>1.3816000000000002E-2</v>
+      </c>
+      <c r="C20" s="9">
         <f t="shared" si="1"/>
-        <v>1.3007999999999999E-2</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1.2995004995004995</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="E19">
-        <v>1142</v>
-      </c>
-      <c r="F19">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20">
+        <v>1.2537205081669693</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1266</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1280</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="3"/>
+        <v>1273</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1067950549872378</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="4"/>
+        <v>0.43512295709961496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4607999999999999E-2</v>
+      </c>
+      <c r="C21" s="9">
         <f t="shared" si="1"/>
-        <v>1.3816000000000002E-2</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>1.2537205081669693</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="E20">
-        <v>1266</v>
-      </c>
-      <c r="F20">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21">
+        <v>1.2163197335553704</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1382</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1392</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="3"/>
+        <v>1387</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="5"/>
+        <v>1.199705059911468</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="4"/>
+        <v>-0.10782182252556513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5415999999999999E-2</v>
+      </c>
+      <c r="C22" s="9">
         <f t="shared" si="1"/>
-        <v>1.4607999999999999E-2</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1.2163197335553704</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="E21">
-        <v>1382</v>
-      </c>
-      <c r="F21">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22">
+        <v>1.1840245775729645</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1.302</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1510</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1520</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="3"/>
+        <v>1515</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="5"/>
+        <v>1.3040250654404284</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="4"/>
+        <v>0.15553498006362157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6167999999999998E-2</v>
+      </c>
+      <c r="C23" s="9">
         <f t="shared" si="1"/>
-        <v>1.5415999999999999E-2</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1.1840245775729645</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1.302</v>
-      </c>
-      <c r="E22">
-        <v>1510</v>
-      </c>
-      <c r="F22">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23">
+        <v>1.1581661891117478</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1626</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1641</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="3"/>
+        <v>1633.5</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="5"/>
+        <v>1.4006025705590361</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="4"/>
+        <v>0.32969703144958701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7024000000000001E-2</v>
+      </c>
+      <c r="C24" s="9">
         <f t="shared" si="1"/>
-        <v>1.6167999999999998E-2</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>1.1581661891117478</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="E23">
-        <v>1626</v>
-      </c>
-      <c r="F23">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24">
+        <v>1.1326679973386562</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1758</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1766</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="3"/>
+        <v>1762</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="5"/>
+        <v>1.505330076109594</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="4"/>
+        <v>0.15502835060506492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7824E-2</v>
+      </c>
+      <c r="C25" s="9">
         <f t="shared" si="1"/>
-        <v>1.7024000000000001E-2</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1.1326679973386562</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1.5029999999999999</v>
-      </c>
-      <c r="E24">
-        <v>1758</v>
-      </c>
-      <c r="F24">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25">
+        <v>1.1119151590767311</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1.603</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1882</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1895</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="3"/>
+        <v>1888.5</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="5"/>
+        <v>1.6084275815737619</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="4"/>
+        <v>0.33858899399637465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
+        <f t="shared" si="2"/>
+        <v>1.8696000000000001E-2</v>
+      </c>
+      <c r="C26" s="9">
         <f t="shared" si="1"/>
-        <v>1.7824E-2</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>1.1119151590767311</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1.603</v>
-      </c>
-      <c r="E25">
-        <v>1882</v>
-      </c>
-      <c r="F25">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26">
+        <v>1.0920560747663552</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1.712</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2014</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="3"/>
+        <v>2018</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="5"/>
+        <v>1.7139700871675145</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="4"/>
+        <v>0.11507518501837424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
+        <f t="shared" si="2"/>
+        <v>1.9392E-2</v>
+      </c>
+      <c r="C27" s="9">
         <f t="shared" si="1"/>
-        <v>1.8696000000000001E-2</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>1.0920560747663552</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1.712</v>
-      </c>
-      <c r="E26">
-        <v>2014</v>
-      </c>
-      <c r="F26">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f t="shared" si="1"/>
-        <v>1.9392E-2</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
         <v>1.0779321845469707</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="10">
         <v>1.7989999999999999</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <v>2120</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="8">
         <v>2129</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="G27" s="8">
+        <f t="shared" si="3"/>
+        <v>2124.5</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="5"/>
+        <v>1.8007675917677823</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="4"/>
+        <v>9.8254128281401107E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="15">
         <f>(D28*0.008)+0.005</f>
         <v>2.0272000000000002E-2</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
+      <c r="C28" s="9">
+        <f t="shared" si="1"/>
         <v>1.0619172341540073</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="10">
         <v>1.909</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="8">
         <v>2256</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="8">
         <v>2265</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="8">
+        <f t="shared" si="3"/>
+        <v>2260.5</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="5"/>
+        <v>1.9116075976423026</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="4"/>
+        <v>0.13659495245167949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="15">
         <f>(D29*0.008)+0.05</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
+      <c r="C29" s="9">
+        <f t="shared" si="1"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="11">
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="8">
         <v>2359</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="8">
         <v>2365</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <f t="shared" ref="B30:B42" si="2">(D30*0.008)+0.05</f>
+      <c r="G29" s="8">
+        <f t="shared" si="3"/>
+        <v>2362</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="5"/>
+        <v>1.9943301020265953</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="4"/>
+        <v>-0.28349489867023348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="15">
+        <f t="shared" ref="B30:B42" si="6">(D30*0.008)+0.05</f>
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
+      <c r="C30" s="9">
+        <f t="shared" si="1"/>
         <v>3.1809523809523808</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="11">
         <v>2.1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="8">
         <v>2498</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="8">
         <v>2509</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f t="shared" si="2"/>
+      <c r="G30" s="8">
+        <f t="shared" si="3"/>
+        <v>2503.5</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="5"/>
+        <v>2.1096526081386884</v>
+      </c>
+      <c r="I30" s="21">
+        <f t="shared" si="4"/>
+        <v>0.45964800660420424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="15">
+        <f t="shared" si="6"/>
         <v>6.7600000000000007E-2</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
+      <c r="C31" s="9">
+        <f t="shared" si="1"/>
         <v>3.0727272727272728</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="8">
         <v>2609</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="8">
         <v>2620</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f t="shared" si="2"/>
+      <c r="G31" s="8">
+        <f t="shared" si="3"/>
+        <v>2614.5</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" si="5"/>
+        <v>2.2001176129333335</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" si="4"/>
+        <v>5.3460424242429182E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="15">
+        <f t="shared" si="6"/>
         <v>6.8479999999999999E-2</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
+      <c r="C32" s="9">
+        <f t="shared" si="1"/>
         <v>2.9645021645021643</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="11">
         <v>2.31</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="8">
         <v>2748</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="8">
         <v>2756</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f t="shared" si="2"/>
+      <c r="G32" s="8">
+        <f t="shared" si="3"/>
+        <v>2752</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="5"/>
+        <v>2.3121801188726465</v>
+      </c>
+      <c r="I32" s="21">
+        <f t="shared" si="4"/>
+        <v>9.4377440374305788E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="15">
+        <f t="shared" si="6"/>
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
+      <c r="C33" s="9">
+        <f t="shared" si="1"/>
         <v>2.8833333333333333</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="11">
         <v>2.4</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="8">
         <v>2863</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="8">
         <v>2869</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f t="shared" si="2"/>
+      <c r="G33" s="8">
+        <f t="shared" si="3"/>
+        <v>2866</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="5"/>
+        <v>2.4050901237968767</v>
+      </c>
+      <c r="I33" s="21">
+        <f t="shared" si="4"/>
+        <v>0.21208849153653286</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="15">
+        <f t="shared" si="6"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
+      <c r="C34" s="9">
+        <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="11">
         <v>2.5</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="8">
         <v>2986</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="8">
         <v>2995</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f t="shared" si="2"/>
+      <c r="G34" s="8">
+        <f t="shared" si="3"/>
+        <v>2990.5</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="5"/>
+        <v>2.5065576291746545</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" si="4"/>
+        <v>0.26230516698618089</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="15">
+        <f t="shared" si="6"/>
         <v>7.0879999999999999E-2</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
+      <c r="C35" s="9">
+        <f t="shared" si="1"/>
         <v>2.7157088122605364</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="11">
         <v>2.61</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="8">
         <v>3120</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="8">
         <v>3131</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <f t="shared" si="2"/>
+      <c r="G35" s="8">
+        <f t="shared" si="3"/>
+        <v>3125.5</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="5"/>
+        <v>2.61658263500598</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="4"/>
+        <v>0.25220823777701568</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="15">
+        <f t="shared" si="6"/>
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
+      <c r="C36" s="9">
+        <f t="shared" si="1"/>
         <v>2.6518518518518515</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="11">
         <v>2.7</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="8">
         <v>3232</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="8">
         <v>3246</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <f t="shared" si="2"/>
+      <c r="G36" s="8">
+        <f t="shared" si="3"/>
+        <v>3239</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="5"/>
+        <v>2.7090851399086127</v>
+      </c>
+      <c r="I36" s="21">
+        <f t="shared" si="4"/>
+        <v>0.33648666328194377</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="15">
+        <f t="shared" si="6"/>
         <v>7.2480000000000003E-2</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
+      <c r="C37" s="9">
+        <f t="shared" si="1"/>
         <v>2.5793594306049825</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="11">
         <v>2.81</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="8">
         <v>3368</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="8">
         <v>3379</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <f t="shared" si="2"/>
+      <c r="G37" s="8">
+        <f t="shared" si="3"/>
+        <v>3373.5</v>
+      </c>
+      <c r="H37" s="17">
+        <f t="shared" si="5"/>
+        <v>2.8187026457183406</v>
+      </c>
+      <c r="I37" s="21">
+        <f t="shared" si="4"/>
+        <v>0.30970269460286698</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
+        <f t="shared" si="6"/>
         <v>7.3280000000000012E-2</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
+      <c r="C38" s="9">
+        <f t="shared" si="1"/>
         <v>2.5182130584192439</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="11">
         <v>2.91</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="8">
         <v>3480</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="8">
         <v>3497</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <f t="shared" si="2"/>
+      <c r="G38" s="8">
+        <f t="shared" si="3"/>
+        <v>3488.5</v>
+      </c>
+      <c r="H38" s="17">
+        <f t="shared" si="5"/>
+        <v>2.9124276506857658</v>
+      </c>
+      <c r="I38" s="21">
+        <f t="shared" si="4"/>
+        <v>8.3424422191260131E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="15">
+        <f t="shared" si="6"/>
         <v>7.400000000000001E-2</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
+      <c r="C39" s="9">
+        <f t="shared" si="1"/>
         <v>2.4666666666666668</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="11">
         <v>3</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="8">
         <v>3593</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="8">
         <v>3603</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <f t="shared" si="2"/>
+      <c r="G39" s="8">
+        <f t="shared" si="3"/>
+        <v>3598</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="5"/>
+        <v>3.0016701554156184</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" si="4"/>
+        <v>5.5671847187281166E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="15">
+        <f t="shared" si="6"/>
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
+      <c r="C40" s="9">
+        <f t="shared" si="1"/>
         <v>2.4129032258064518</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="11">
         <v>3.1</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="8">
         <v>3723</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="8">
         <v>3732</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <f t="shared" si="2"/>
+      <c r="G40" s="8">
+        <f t="shared" si="3"/>
+        <v>3727.5</v>
+      </c>
+      <c r="H40" s="17">
+        <f t="shared" si="5"/>
+        <v>3.1072126610093713</v>
+      </c>
+      <c r="I40" s="21">
+        <f t="shared" si="4"/>
+        <v>0.23266648417326563</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="15">
+        <f t="shared" si="6"/>
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
+      <c r="C41" s="9">
+        <f t="shared" si="1"/>
         <v>2.3624999999999998</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="11">
         <v>3.2</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="8">
         <v>3846</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="8">
         <v>3858</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <f t="shared" si="2"/>
+      <c r="G41" s="8">
+        <f t="shared" si="3"/>
+        <v>3852</v>
+      </c>
+      <c r="H41" s="17">
+        <f t="shared" si="5"/>
+        <v>3.2086801663871491</v>
+      </c>
+      <c r="I41" s="21">
+        <f t="shared" si="4"/>
+        <v>0.27125519959840527</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="16">
+        <f t="shared" si="6"/>
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
+      <c r="C42" s="19">
+        <f t="shared" si="1"/>
         <v>2.3151515151515154</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="13">
         <v>3.3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="12">
         <v>3960</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="12">
         <v>3965</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" si="3"/>
+        <v>3962.5</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="5"/>
+        <v>3.2987376711601968</v>
+      </c>
+      <c r="I42" s="22">
+        <f t="shared" si="4"/>
+        <v>-3.8252389084940594E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ADC korekce.xlsx
+++ b/ADC korekce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mechatronika\zdroj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B0186E-6557-43D5-914A-E0217850F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423C6A9-3573-49A9-A01B-45B59CF653E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701769E6-910C-495F-9108-E9F7473121A3}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,12 +92,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -112,43 +124,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -256,34 +231,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -2230,99 +2259,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E353EB-305F-4836-8586-AFDB78AFBECF}">
   <dimension ref="A7:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I42" sqref="B8:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="26">
         <f t="shared" ref="G9:G10" si="0">(E9+F9)/2</f>
         <v>0</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="30">
         <f>E9/424.71</f>
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <f>(D10*0.008)+0.0005</f>
         <v>1.3288E-3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="13">
         <f>(B10/D10)*100</f>
         <v>1.2826254826254828</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="13">
         <v>0.1036</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="14">
         <v>38</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="14">
         <v>50</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="27">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <f>E10/365</f>
         <v>0.10410958904109589</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="15">
         <f>((H10-D10)/D10)*100</f>
         <v>0.49188131379912681</v>
       </c>
@@ -2331,125 +2362,125 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="10">
         <f>(D11*0.008)+0.005</f>
         <v>6.6319999999999999E-3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <f t="shared" ref="C11:C42" si="1">(B11/D11)*100</f>
         <v>3.2509803921568632</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>161</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>167</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="28">
         <f>(E11+F11)/2</f>
         <v>164</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="7">
         <f>(G11/1226.9938)+0.0693</f>
         <v>0.20296000708398038</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="11">
         <f>((H11-D11)/D11)*100</f>
         <v>-0.50980044902922106</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <f t="shared" ref="B12:B27" si="2">(D12*0.008)+0.005</f>
         <v>7.4320000000000002E-3</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="13">
         <f t="shared" si="1"/>
         <v>2.4447368421052635</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="16">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="14">
         <v>284</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="14">
         <v>291</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="27">
         <f t="shared" ref="G12:G42" si="3">(E12+F12)/2</f>
         <v>287.5</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <f>(G12/1226.9938)+0.0693</f>
         <v>0.30361251241856313</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="15">
         <f t="shared" ref="I12:I42" si="4">((H12-D12)/D12)*100</f>
         <v>-0.12746302020949432</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="10">
         <f t="shared" si="2"/>
         <v>8.208E-3</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <f t="shared" si="1"/>
         <v>2.0468827930174562</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>0.40100000000000002</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>401</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>410</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="28">
         <f t="shared" si="3"/>
         <v>405.5</v>
       </c>
-      <c r="H13" s="17">
-        <f t="shared" ref="H12:H42" si="5">(G13/1226.9938)+0.0693</f>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13:H42" si="5">(G13/1226.9938)+0.0693</f>
         <v>0.39978251751557348</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="11">
         <f t="shared" si="4"/>
         <v>-0.30361159212632077</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+      <c r="B14" s="12">
         <f t="shared" si="2"/>
         <v>9.0559999999999998E-3</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="13">
         <f t="shared" si="1"/>
         <v>1.7861932938856013</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="16">
         <v>0.50700000000000001</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="14">
         <v>535</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="14">
         <v>540</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="27">
         <f t="shared" si="3"/>
         <v>537.5</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <f t="shared" si="5"/>
         <v>0.50736252321731379</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="15">
         <f t="shared" si="4"/>
         <v>7.1503593158536785E-2</v>
       </c>
@@ -2461,32 +2492,32 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="10">
         <f t="shared" si="2"/>
         <v>9.8560000000000002E-3</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <f t="shared" si="1"/>
         <v>1.6237232289950578</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>0.60699999999999998</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>654</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>667</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="28">
         <f t="shared" si="3"/>
         <v>660.5</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="7">
         <f t="shared" si="5"/>
         <v>0.60760752853029909</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="11">
         <f t="shared" si="4"/>
         <v>0.10008707253692031</v>
       </c>
@@ -2498,404 +2529,404 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+      <c r="B16" s="12">
         <f t="shared" si="2"/>
         <v>1.06E-2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="13">
         <f t="shared" si="1"/>
         <v>1.5142857142857145</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="16">
         <v>0.7</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="14">
         <v>768</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="14">
         <v>798</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="27">
         <f t="shared" si="3"/>
         <v>783</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <f t="shared" si="5"/>
         <v>0.70744503382168689</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="15">
         <f t="shared" si="4"/>
         <v>1.0635762602409902</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+      <c r="B17" s="10">
         <f t="shared" si="2"/>
         <v>1.1368E-2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <f>(B17/D17)*100</f>
         <v>1.4281407035175879</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>0.79600000000000004</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>887</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <v>895</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="28">
         <f t="shared" si="3"/>
         <v>891</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="7">
         <f t="shared" si="5"/>
         <v>0.7954650384867471</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="11">
         <f t="shared" si="4"/>
         <v>-6.7206220257907109E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+      <c r="B18" s="12">
         <f t="shared" si="2"/>
         <v>1.2216000000000001E-2</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="13">
         <f t="shared" si="1"/>
         <v>1.3543237250554325</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="16">
         <v>0.90200000000000002</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="14">
         <v>1018</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="14">
         <v>1027</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="27">
         <f t="shared" si="3"/>
         <v>1022.5</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <f t="shared" si="5"/>
         <v>0.9026375441668899</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="15">
         <f t="shared" si="4"/>
         <v>7.068117149555217E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+      <c r="B19" s="10">
         <f t="shared" si="2"/>
         <v>1.3007999999999999E-2</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <f t="shared" si="1"/>
         <v>1.2995004995004995</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>1.0009999999999999</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>1142</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>1149</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="28">
         <f t="shared" si="3"/>
         <v>1145.5</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="7">
         <f t="shared" si="5"/>
         <v>1.0028825494798752</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="11">
         <f t="shared" si="4"/>
         <v>0.1880668811064253</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+      <c r="B20" s="12">
         <f t="shared" si="2"/>
         <v>1.3816000000000002E-2</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="13">
         <f t="shared" si="1"/>
         <v>1.2537205081669693</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="16">
         <v>1.1020000000000001</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="14">
         <v>1266</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="14">
         <v>1280</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="27">
         <f t="shared" si="3"/>
         <v>1273</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <f t="shared" si="5"/>
         <v>1.1067950549872378</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="15">
         <f t="shared" si="4"/>
         <v>0.43512295709961496</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+      <c r="B21" s="10">
         <f t="shared" si="2"/>
         <v>1.4607999999999999E-2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <f t="shared" si="1"/>
         <v>1.2163197335553704</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>1.2010000000000001</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <v>1382</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="5">
         <v>1392</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="28">
         <f t="shared" si="3"/>
         <v>1387</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="7">
         <f t="shared" si="5"/>
         <v>1.199705059911468</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="11">
         <f t="shared" si="4"/>
         <v>-0.10782182252556513</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="B22" s="12">
         <f t="shared" si="2"/>
         <v>1.5415999999999999E-2</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="13">
         <f t="shared" si="1"/>
         <v>1.1840245775729645</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="16">
         <v>1.302</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="14">
         <v>1510</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="14">
         <v>1520</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="27">
         <f t="shared" si="3"/>
         <v>1515</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <f t="shared" si="5"/>
         <v>1.3040250654404284</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="15">
         <f t="shared" si="4"/>
         <v>0.15553498006362157</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+      <c r="B23" s="10">
         <f t="shared" si="2"/>
         <v>1.6167999999999998E-2</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <f t="shared" si="1"/>
         <v>1.1581661891117478</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>1.3959999999999999</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <v>1626</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="5">
         <v>1641</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="28">
         <f t="shared" si="3"/>
         <v>1633.5</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="7">
         <f t="shared" si="5"/>
         <v>1.4006025705590361</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="11">
         <f t="shared" si="4"/>
         <v>0.32969703144958701</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
+      <c r="B24" s="12">
         <f t="shared" si="2"/>
         <v>1.7024000000000001E-2</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="13">
         <f t="shared" si="1"/>
         <v>1.1326679973386562</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="16">
         <v>1.5029999999999999</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="14">
         <v>1758</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="14">
         <v>1766</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="27">
         <f t="shared" si="3"/>
         <v>1762</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <f t="shared" si="5"/>
         <v>1.505330076109594</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="15">
         <f t="shared" si="4"/>
         <v>0.15502835060506492</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
+      <c r="B25" s="10">
         <f t="shared" si="2"/>
         <v>1.7824E-2</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <f t="shared" si="1"/>
         <v>1.1119151590767311</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <v>1.603</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <v>1882</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="5">
         <v>1895</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="28">
         <f t="shared" si="3"/>
         <v>1888.5</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="7">
         <f t="shared" si="5"/>
         <v>1.6084275815737619</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="11">
         <f t="shared" si="4"/>
         <v>0.33858899399637465</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+      <c r="B26" s="12">
         <f t="shared" si="2"/>
         <v>1.8696000000000001E-2</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="13">
         <f t="shared" si="1"/>
         <v>1.0920560747663552</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="16">
         <v>1.712</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="14">
         <v>2014</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="14">
         <v>2022</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="27">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <f t="shared" si="5"/>
         <v>1.7139700871675145</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="15">
         <f t="shared" si="4"/>
         <v>0.11507518501837424</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
+      <c r="B27" s="10">
         <f t="shared" si="2"/>
         <v>1.9392E-2</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <f t="shared" si="1"/>
         <v>1.0779321845469707</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="7">
         <v>1.7989999999999999</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <v>2120</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <v>2129</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="28">
         <f t="shared" si="3"/>
         <v>2124.5</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="7">
         <f t="shared" si="5"/>
         <v>1.8007675917677823</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="11">
         <f t="shared" si="4"/>
         <v>9.8254128281401107E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="15">
+      <c r="B28" s="12">
         <f>(D28*0.008)+0.005</f>
         <v>2.0272000000000002E-2</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="13">
         <f t="shared" si="1"/>
         <v>1.0619172341540073</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="16">
         <v>1.909</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="14">
         <v>2256</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="14">
         <v>2265</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="27">
         <f t="shared" si="3"/>
         <v>2260.5</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16">
         <f t="shared" si="5"/>
         <v>1.9116075976423026</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="15">
         <f t="shared" si="4"/>
         <v>0.13659495245167949</v>
       </c>
@@ -2904,410 +2935,410 @@
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="10">
         <f>(D29*0.008)+0.05</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <f t="shared" si="1"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>2</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="5">
         <v>2359</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="5">
         <v>2365</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="28">
         <f t="shared" si="3"/>
         <v>2362</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="7">
         <f t="shared" si="5"/>
         <v>1.9943301020265953</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="11">
         <f t="shared" si="4"/>
         <v>-0.28349489867023348</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="15">
+      <c r="B30" s="12">
         <f t="shared" ref="B30:B42" si="6">(D30*0.008)+0.05</f>
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="13">
         <f t="shared" si="1"/>
         <v>3.1809523809523808</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="17">
         <v>2.1</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="14">
         <v>2498</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="14">
         <v>2509</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="27">
         <f t="shared" si="3"/>
         <v>2503.5</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="16">
         <f t="shared" si="5"/>
         <v>2.1096526081386884</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="15">
         <f t="shared" si="4"/>
         <v>0.45964800660420424</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="15">
+      <c r="B31" s="10">
         <f t="shared" si="6"/>
         <v>6.7600000000000007E-2</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6">
         <f t="shared" si="1"/>
         <v>3.0727272727272728</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="5">
         <v>2609</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="5">
         <v>2620</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="28">
         <f t="shared" si="3"/>
         <v>2614.5</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="7">
         <f t="shared" si="5"/>
         <v>2.2001176129333335</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="11">
         <f t="shared" si="4"/>
         <v>5.3460424242429182E-3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="15">
+      <c r="B32" s="12">
         <f t="shared" si="6"/>
         <v>6.8479999999999999E-2</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="13">
         <f t="shared" si="1"/>
         <v>2.9645021645021643</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="17">
         <v>2.31</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="14">
         <v>2748</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="14">
         <v>2756</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="27">
         <f t="shared" si="3"/>
         <v>2752</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="16">
         <f t="shared" si="5"/>
         <v>2.3121801188726465</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="15">
         <f t="shared" si="4"/>
         <v>9.4377440374305788E-2</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="15">
+      <c r="B33" s="10">
         <f t="shared" si="6"/>
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6">
         <f t="shared" si="1"/>
         <v>2.8833333333333333</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>2.4</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="5">
         <v>2863</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="5">
         <v>2869</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="28">
         <f t="shared" si="3"/>
         <v>2866</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="7">
         <f t="shared" si="5"/>
         <v>2.4050901237968767</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="11">
         <f t="shared" si="4"/>
         <v>0.21208849153653286</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="15">
+      <c r="B34" s="12">
         <f t="shared" si="6"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="13">
         <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="17">
         <v>2.5</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="14">
         <v>2986</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="14">
         <v>2995</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="27">
         <f t="shared" si="3"/>
         <v>2990.5</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <f t="shared" si="5"/>
         <v>2.5065576291746545</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="15">
         <f t="shared" si="4"/>
         <v>0.26230516698618089</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="15">
+      <c r="B35" s="10">
         <f t="shared" si="6"/>
         <v>7.0879999999999999E-2</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="6">
         <f t="shared" si="1"/>
         <v>2.7157088122605364</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="8">
         <v>2.61</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="5">
         <v>3120</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="5">
         <v>3131</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="28">
         <f t="shared" si="3"/>
         <v>3125.5</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="7">
         <f t="shared" si="5"/>
         <v>2.61658263500598</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="11">
         <f t="shared" si="4"/>
         <v>0.25220823777701568</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="15">
+      <c r="B36" s="12">
         <f t="shared" si="6"/>
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="13">
         <f t="shared" si="1"/>
         <v>2.6518518518518515</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="17">
         <v>2.7</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="14">
         <v>3232</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="14">
         <v>3246</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="27">
         <f t="shared" si="3"/>
         <v>3239</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="16">
         <f t="shared" si="5"/>
         <v>2.7090851399086127</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="15">
         <f t="shared" si="4"/>
         <v>0.33648666328194377</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="15">
+      <c r="B37" s="10">
         <f t="shared" si="6"/>
         <v>7.2480000000000003E-2</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="6">
         <f t="shared" si="1"/>
         <v>2.5793594306049825</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="8">
         <v>2.81</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="5">
         <v>3368</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="5">
         <v>3379</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="28">
         <f t="shared" si="3"/>
         <v>3373.5</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="7">
         <f t="shared" si="5"/>
         <v>2.8187026457183406</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="11">
         <f t="shared" si="4"/>
         <v>0.30970269460286698</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="15">
+      <c r="B38" s="12">
         <f t="shared" si="6"/>
         <v>7.3280000000000012E-2</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="13">
         <f t="shared" si="1"/>
         <v>2.5182130584192439</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="17">
         <v>2.91</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="14">
         <v>3480</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="14">
         <v>3497</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="27">
         <f t="shared" si="3"/>
         <v>3488.5</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="16">
         <f t="shared" si="5"/>
         <v>2.9124276506857658</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="15">
         <f t="shared" si="4"/>
         <v>8.3424422191260131E-2</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="15">
+      <c r="B39" s="10">
         <f t="shared" si="6"/>
         <v>7.400000000000001E-2</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6">
         <f t="shared" si="1"/>
         <v>2.4666666666666668</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="8">
         <v>3</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="5">
         <v>3593</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="5">
         <v>3603</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="28">
         <f t="shared" si="3"/>
         <v>3598</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="7">
         <f t="shared" si="5"/>
         <v>3.0016701554156184</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="11">
         <f t="shared" si="4"/>
         <v>5.5671847187281166E-2</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="15">
+      <c r="B40" s="12">
         <f t="shared" si="6"/>
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="13">
         <f t="shared" si="1"/>
         <v>2.4129032258064518</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="17">
         <v>3.1</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="14">
         <v>3723</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="14">
         <v>3732</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="27">
         <f t="shared" si="3"/>
         <v>3727.5</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="16">
         <f t="shared" si="5"/>
         <v>3.1072126610093713</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="15">
         <f t="shared" si="4"/>
         <v>0.23266648417326563</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="15">
+      <c r="B41" s="10">
         <f t="shared" si="6"/>
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="6">
         <f t="shared" si="1"/>
         <v>2.3624999999999998</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8">
         <v>3.2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="5">
         <v>3846</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="5">
         <v>3858</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="28">
         <f t="shared" si="3"/>
         <v>3852</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="7">
         <f t="shared" si="5"/>
         <v>3.2086801663871491</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="11">
         <f t="shared" si="4"/>
         <v>0.27125519959840527</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="16">
+      <c r="B42" s="18">
         <f t="shared" si="6"/>
         <v>7.6399999999999996E-2</v>
       </c>
@@ -3315,20 +3346,20 @@
         <f t="shared" si="1"/>
         <v>2.3151515151515154</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="20">
         <v>3.3</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="21">
         <v>3960</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="21">
         <v>3965</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="29">
         <f t="shared" si="3"/>
         <v>3962.5</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="31">
         <f t="shared" si="5"/>
         <v>3.2987376711601968</v>
       </c>

--- a/ADC korekce.xlsx
+++ b/ADC korekce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mechatronika\zdroj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423C6A9-3573-49A9-A01B-45B59CF653E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92C039-65CF-417A-8F42-D7B673CE690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701769E6-910C-495F-9108-E9F7473121A3}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -307,10 +307,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1923,16 +1923,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>395654</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>188589</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>31266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>154886</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>45554</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2259,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E353EB-305F-4836-8586-AFDB78AFBECF}">
   <dimension ref="A7:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I42" sqref="B8:I42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
